--- a/utils/localisation_script/test-data/proper-success-case-check/out-sme/hi.xlsx
+++ b/utils/localisation_script/test-data/proper-success-case-check/out-sme/hi.xlsx
@@ -451,11 +451,7 @@
           <t>(No Username)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -463,11 +459,7 @@
           <t>10 - 30 (Youth)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -475,11 +467,7 @@
           <t>&lt;a&gt;Click Here&lt;/a&gt; to go back to home page</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -487,11 +475,7 @@
           <t>By proceeding ahead you agree to the &lt;a&gt; Terms and Conditions&lt;/a&gt;</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -499,11 +483,7 @@
           <t>Contributions</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -511,11 +491,7 @@
           <t>Female</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -523,11 +499,7 @@
           <t>English</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -535,11 +507,7 @@
           <t>Get started by clicking on &lt;b&gt;Record&lt;/b&gt; button</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -547,11 +515,7 @@
           <t>TO</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -559,11 +523,7 @@
           <t>Validate More</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -571,11 +531,7 @@
           <t>You’ve earned a &lt;u&gt; Bhasha Samarthak Badge by validating &lt;v&gt; Images.</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -583,11 +539,7 @@
           <t>image label(s) validated</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -595,11 +547,7 @@
           <t>I've contributed towards building open language repository for India on https://bhashini.gov.in/bhashadaan You and I can make a difference by donating our voices that can help machines learn our language. Our &lt;x&gt; language ranks &lt;y&gt; on Bolo India. Do your bit and empower the language?</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -607,11 +555,7 @@
           <t>Your next goal is to reach &lt;u&gt; images to earn your &lt;v&gt; Bhasha Samarthak Badge.</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>dfsf</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
